--- a/medicine/Enfance/Agnès_Rosenstiehl/Agnès_Rosenstiehl.xlsx
+++ b/medicine/Enfance/Agnès_Rosenstiehl/Agnès_Rosenstiehl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Rosenstiehl</t>
+          <t>Agnès_Rosenstiehl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agnès Rosenstiehl est une auteure et illustratrice française née le 4 décembre 1941 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Rosenstiehl</t>
+          <t>Agnès_Rosenstiehl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1941 à Paris[1], issue d'une famille d'artistes, son père est Pierre Pinsard, peintre, décorateur et architecte d'art sacré. Elle poursuit des études de musique au Conservatoire national supérieur de musique de Paris[1] et y obtient le premier prix d'harmonie[1] en 1966 sous le nom d'Agnès Gay.
-En parallèle, elle poursuit une licence de lettres (abandonnée) à la Sorbonne. Devenue mère, elle se lance dans la création de livres pour les enfants[1] et collabore avec de nombreuses maisons d'édition, des plus réputées aux plus petites et émergentes. Elle se dit elle-même fascinée par l'antiquité égyptienne [réf. nécessaire] : « en particulier les hiéroglyphes, dessins fascinants qui sont en même temps du texte, et la fraîcheur champêtre des aplats de couleur des fresques. », ce qui la conduit à dessiner ses personnages souvent de profil[1], à utiliser des aplats de couleurs franches, à imbriquer écriture et dessin. Elle témoigne d'un intérêt soutenu pour la langue française, sujet qu'elle explore dans de nombreux ouvrages, comme ses Alphabets, ou le Livre de la langue française (illustré par Pierre Gay).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1941 à Paris, issue d'une famille d'artistes, son père est Pierre Pinsard, peintre, décorateur et architecte d'art sacré. Elle poursuit des études de musique au Conservatoire national supérieur de musique de Paris et y obtient le premier prix d'harmonie en 1966 sous le nom d'Agnès Gay.
+En parallèle, elle poursuit une licence de lettres (abandonnée) à la Sorbonne. Devenue mère, elle se lance dans la création de livres pour les enfants et collabore avec de nombreuses maisons d'édition, des plus réputées aux plus petites et émergentes. Elle se dit elle-même fascinée par l'antiquité égyptienne [réf. nécessaire] : « en particulier les hiéroglyphes, dessins fascinants qui sont en même temps du texte, et la fraîcheur champêtre des aplats de couleur des fresques. », ce qui la conduit à dessiner ses personnages souvent de profil, à utiliser des aplats de couleurs franches, à imbriquer écriture et dessin. Elle témoigne d'un intérêt soutenu pour la langue française, sujet qu'elle explore dans de nombreux ouvrages, comme ses Alphabets, ou le Livre de la langue française (illustré par Pierre Gay).
 Sa production n'a pas cessé depuis 1968. Ses archives sont confiées à l'Institut mémoires de l'édition contemporaine (IMEC) à Saint-Germain-la-Blanche-Herbe.
 Elle est mariée au mathématicien Pierre Rosenstiehl.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Rosenstiehl</t>
+          <t>Agnès_Rosenstiehl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son ouvrage L'Alphabet fou, qu'elle a écrit et illustré, figure dans la « Honour List » 1980[2], liste d'ouvrages jeunesse internationaux choisis par l'Union internationale pour les livres de jeunesse (IBBY).
-En 1983, elle obtient la "Mention" Premio Grafico Fiera di Bologna per la Gioventù de la Foire du livre de jeunesse de Bologne[3] (Italie) pour ses illustrations de chansons choisies par Pomme d'Api,  66 chansons, 6 canons, 6 noëls .
-En 1995/1996, Agnès Rosenstiehl reçoit le grand prix de la Société des gens de lettres (SGDL) du livre jeunesse pour Les Adverbes[1],[4]. 
-En 2000, elle est récompensée d'une "Mention" pour l'Introducing Art to Children, à la Foire du livre de jeunesse de Bologne[5] (Italie) pour la collection qu'elle dirige : « Collection de Peinture”, aux Éditions Autrement.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son ouvrage L'Alphabet fou, qu'elle a écrit et illustré, figure dans la « Honour List » 1980, liste d'ouvrages jeunesse internationaux choisis par l'Union internationale pour les livres de jeunesse (IBBY).
+En 1983, elle obtient la "Mention" Premio Grafico Fiera di Bologna per la Gioventù de la Foire du livre de jeunesse de Bologne (Italie) pour ses illustrations de chansons choisies par Pomme d'Api,  66 chansons, 6 canons, 6 noëls .
+En 1995/1996, Agnès Rosenstiehl reçoit le grand prix de la Société des gens de lettres (SGDL) du livre jeunesse pour Les Adverbes,. 
+En 2000, elle est récompensée d'une "Mention" pour l'Introducing Art to Children, à la Foire du livre de jeunesse de Bologne (Italie) pour la collection qu'elle dirige : « Collection de Peinture”, aux Éditions Autrement.
 Agnès Rosenstiehl est nommée Chevalier de la Légion d'Honneur en 2020.
 </t>
         </is>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Rosenstiehl</t>
+          <t>Agnès_Rosenstiehl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ABC, Éditions des Jumeaux, 1969.
@@ -659,15 +677,15 @@
 Aubes du monde: Évangile, Autrement, 1999.
 Aubes du monde: Dieux grecs, Autrement, 1999.
 Aubes du monde: Fin du monde, Autrement, 1999.
-Câlins, Autrement, 2000.[6]
-Colères, Autrement, 2000.[6]
+Câlins, Autrement, 2000.
+Colères, Autrement, 2000.
 Le Larousse des tout-petits, Larousse, 2000.
 Oh les amoureux!, Lire c'est partir, 2000.
 Histoires d'amour, Lire c'est partir, 2001.
-Vert, Autrement, 2001.[7]
-Bleu, Autrement, 2001.[7]
-Rouge, Autrement, 2001.[7]
-Jaune, Autrement, 2001.[7]
+Vert, Autrement, 2001.
+Bleu, Autrement, 2001.
+Rouge, Autrement, 2001.
+Jaune, Autrement, 2001.
 Le Rouge et le Blanc, Lire c'est partir, 2002.
 Le Journal de Jules Renard, illustrations, Éditions du Seuil, 2002.
 Dictionnaire des noms propres, Larousse, 2003 ; Lire c'est partir, 2011.
@@ -693,7 +711,43 @@
 L'Alphabet politique, Thierry Magnier, 2020.
 Les Couleurs c'est comme ça, Éditions Gallimard, 2022 
 Faut savoir dire non, Albin Michel, 2023 
-Série Mimi Cracra
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agnès_Rosenstiehl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Rosenstiehl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Mimi Cracra</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mimi Cracra, Groupe Bayard, 1983.
 À l'eau Mimi Cracra, Groupe Bayard, 1985.
 Mimi Cracra en vacances, Groupe Bayard, 1986.
@@ -750,8 +804,43 @@
 Drôle de dictionnaire, de Mimi Cracra, Éditions Chemins de traverse, 2017.
 Mimi Cracra toute l'année, Éditions du Seuil Jeunesse, 2022.
 100 aventures de Mimi Cracra, Éditions du Seuil Jeunesse, 2023.
-Revues
-"Tâchez de raconter ma chute et mon sommeil" (Courrier africain de Rimbaud)  in Circeto n°2, fév.1984. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agnès_Rosenstiehl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Rosenstiehl</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Tâchez de raconter ma chute et mon sommeil" (Courrier africain de Rimbaud)  in Circeto n°2, fév.1984. 
 "L'Air du temps de "Ce qu'On dit au Poète à propos de Fleurs"   in Rimbaud multiple, Colloque de Cerisy, éditeurs Bedou et Touzot, 1985. 
 "La Pêche spirituelle" (Rimbaud chez Baudelaire)  in Parade sauvage. Colloque "Rimbaud ou la liberté libre" à Charleville-Mézières, 1986. 
 "Rimbaud, Stravinsky"  in Parade sauvage, Colloque n°2 "Rimbaud à la loupe", Colloque à St John's College, Cambridge, 1987. 
